--- a/jxls-poi/src/test/resources/org/jxls3/Issue321Test.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/Issue321Test.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luca.vercelli\git\jxls\jxls-poi\src\test\resources\org\jxls3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B52660-4354-4114-80B9-3A4A913CBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autore sconosciuto</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,12 +49,12 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="B5")
+          <t xml:space="preserve">jx:area(lastCell="H8")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,15 +70,37 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="employees" var="e2" lastCell="A2")
+          <t xml:space="preserve">jx:each(items="employees2" var="e2" lastCell="B3")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">jxlsteam:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="employees" var="e" lastCell="F4")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,31 +119,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:if(condition="true" lastCell="B4")
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">jxlsteam:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="employees" var="e" lastCell="B2")
+          <t xml:space="preserve">jx:if(condition="true" lastCell="F7")
 </t>
         </r>
       </text>
@@ -126,47 +129,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${e2.name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${e.name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAST ROW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT LAST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+  <si>
+    <t>${e2.name}</t>
+  </si>
+  <si>
+    <t>${e.name}</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>LAST ONE</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; €&quot;"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,22 +177,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +200,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -224,7 +210,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,137 +219,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -422,60 +337,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -507,7 +438,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -531,7 +462,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -591,79 +522,233 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.7"/>
+    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>